--- a/doc/TankMode.xlsx
+++ b/doc/TankMode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\General\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\General\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$223</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1129">
   <si>
     <t>Produced</t>
   </si>
@@ -4838,7 +4839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4954,16 +4955,84 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4983,7 +5052,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5242,16 +5311,17 @@
   <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K172" sqref="K172"/>
+      <selection activeCell="A192" sqref="A192:B192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.875" style="1"/>
     <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
@@ -5260,7 +5330,7 @@
     <col min="13" max="13" width="50.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>943</v>
       </c>
@@ -5301,7 +5371,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>691</v>
       </c>
@@ -5334,7 +5404,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>691</v>
       </c>
@@ -5363,7 +5433,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>691</v>
       </c>
@@ -5398,7 +5468,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>691</v>
       </c>
@@ -5431,7 +5501,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>691</v>
       </c>
@@ -5466,7 +5536,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>691</v>
       </c>
@@ -5503,7 +5573,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>691</v>
       </c>
@@ -5540,7 +5610,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>691</v>
       </c>
@@ -5569,7 +5639,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>691</v>
       </c>
@@ -5598,7 +5668,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>691</v>
       </c>
@@ -5629,7 +5699,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>691</v>
       </c>
@@ -5662,7 +5732,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>691</v>
       </c>
@@ -5695,7 +5765,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>691</v>
       </c>
@@ -5728,7 +5798,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>691</v>
       </c>
@@ -5761,7 +5831,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>691</v>
       </c>
@@ -5798,7 +5868,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>691</v>
       </c>
@@ -5831,7 +5901,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>691</v>
       </c>
@@ -5864,7 +5934,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>691</v>
       </c>
@@ -5897,7 +5967,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>691</v>
       </c>
@@ -5930,7 +6000,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>691</v>
       </c>
@@ -5963,7 +6033,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>691</v>
       </c>
@@ -5996,7 +6066,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>691</v>
       </c>
@@ -6029,7 +6099,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>691</v>
       </c>
@@ -6064,7 +6134,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>691</v>
       </c>
@@ -6099,7 +6169,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>691</v>
       </c>
@@ -6134,7 +6204,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>691</v>
       </c>
@@ -6169,7 +6239,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>691</v>
       </c>
@@ -6206,7 +6276,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>691</v>
       </c>
@@ -6239,7 +6309,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>691</v>
       </c>
@@ -6272,7 +6342,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>691</v>
       </c>
@@ -6307,7 +6377,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>691</v>
       </c>
@@ -6342,7 +6412,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>691</v>
       </c>
@@ -6375,7 +6445,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>691</v>
       </c>
@@ -6406,7 +6476,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>691</v>
       </c>
@@ -6439,7 +6509,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>691</v>
       </c>
@@ -6472,7 +6542,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>691</v>
       </c>
@@ -6499,7 +6569,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>691</v>
       </c>
@@ -6534,7 +6604,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>691</v>
       </c>
@@ -6553,7 +6623,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>933</v>
       </c>
@@ -6594,7 +6664,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>933</v>
       </c>
@@ -6635,7 +6705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>933</v>
       </c>
@@ -6676,7 +6746,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>933</v>
       </c>
@@ -6717,7 +6787,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>933</v>
       </c>
@@ -6758,7 +6828,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>933</v>
       </c>
@@ -6799,7 +6869,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>933</v>
       </c>
@@ -6840,7 +6910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>933</v>
       </c>
@@ -6881,7 +6951,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>933</v>
       </c>
@@ -6922,7 +6992,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>933</v>
       </c>
@@ -6963,7 +7033,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>933</v>
       </c>
@@ -7004,7 +7074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>933</v>
       </c>
@@ -7045,7 +7115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>933</v>
       </c>
@@ -7086,7 +7156,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>933</v>
       </c>
@@ -7127,7 +7197,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>933</v>
       </c>
@@ -7168,7 +7238,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>933</v>
       </c>
@@ -7209,7 +7279,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>933</v>
       </c>
@@ -7250,7 +7320,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>933</v>
       </c>
@@ -7291,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>933</v>
       </c>
@@ -7332,7 +7402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>933</v>
       </c>
@@ -7373,7 +7443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>933</v>
       </c>
@@ -7414,7 +7484,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>933</v>
       </c>
@@ -7455,7 +7525,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>933</v>
       </c>
@@ -7496,7 +7566,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>933</v>
       </c>
@@ -7537,7 +7607,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>933</v>
       </c>
@@ -7578,7 +7648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>933</v>
       </c>
@@ -7619,7 +7689,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>933</v>
       </c>
@@ -7660,7 +7730,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>433</v>
       </c>
@@ -7695,7 +7765,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>433</v>
       </c>
@@ -7730,7 +7800,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>433</v>
       </c>
@@ -7765,7 +7835,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>433</v>
       </c>
@@ -7800,7 +7870,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>433</v>
       </c>
@@ -7835,7 +7905,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>433</v>
       </c>
@@ -7870,7 +7940,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>433</v>
       </c>
@@ -7905,7 +7975,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>433</v>
       </c>
@@ -7940,7 +8010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>433</v>
       </c>
@@ -7975,7 +8045,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>433</v>
       </c>
@@ -8010,7 +8080,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>433</v>
       </c>
@@ -8045,7 +8115,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>433</v>
       </c>
@@ -8080,7 +8150,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>433</v>
       </c>
@@ -8115,7 +8185,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>433</v>
       </c>
@@ -8150,7 +8220,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>433</v>
       </c>
@@ -8185,7 +8255,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>433</v>
       </c>
@@ -8220,7 +8290,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>433</v>
       </c>
@@ -8255,7 +8325,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>433</v>
       </c>
@@ -8290,7 +8360,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>433</v>
       </c>
@@ -8325,7 +8395,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>433</v>
       </c>
@@ -8360,7 +8430,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>433</v>
       </c>
@@ -8395,7 +8465,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>433</v>
       </c>
@@ -8430,7 +8500,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>433</v>
       </c>
@@ -8465,7 +8535,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>433</v>
       </c>
@@ -8500,7 +8570,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -8535,7 +8605,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>433</v>
       </c>
@@ -8570,7 +8640,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>433</v>
       </c>
@@ -8605,7 +8675,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>433</v>
       </c>
@@ -8640,7 +8710,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>433</v>
       </c>
@@ -8665,7 +8735,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>433</v>
       </c>
@@ -8690,7 +8760,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>433</v>
       </c>
@@ -8725,7 +8795,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>433</v>
       </c>
@@ -8760,7 +8830,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>433</v>
       </c>
@@ -8795,7 +8865,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>433</v>
       </c>
@@ -8830,7 +8900,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>433</v>
       </c>
@@ -8865,7 +8935,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>433</v>
       </c>
@@ -8900,7 +8970,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>433</v>
       </c>
@@ -8935,7 +9005,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>433</v>
       </c>
@@ -8970,7 +9040,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>433</v>
       </c>
@@ -8995,7 +9065,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>433</v>
       </c>
@@ -9020,7 +9090,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>433</v>
       </c>
@@ -9055,7 +9125,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>433</v>
       </c>
@@ -9090,7 +9160,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>433</v>
       </c>
@@ -9125,7 +9195,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>433</v>
       </c>
@@ -9160,7 +9230,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>433</v>
       </c>
@@ -9193,7 +9263,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>433</v>
       </c>
@@ -9228,7 +9298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>433</v>
       </c>
@@ -9263,7 +9333,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>433</v>
       </c>
@@ -9298,7 +9368,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>433</v>
       </c>
@@ -9333,7 +9403,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>433</v>
       </c>
@@ -9368,7 +9438,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
         <v>433</v>
       </c>
@@ -9401,7 +9471,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>433</v>
       </c>
@@ -9432,7 +9502,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>433</v>
       </c>
@@ -9467,7 +9537,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>433</v>
       </c>
@@ -9502,7 +9572,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>433</v>
       </c>
@@ -9537,7 +9607,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
         <v>433</v>
       </c>
@@ -9572,7 +9642,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>433</v>
       </c>
@@ -9607,7 +9677,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>433</v>
       </c>
@@ -9642,7 +9712,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>433</v>
       </c>
@@ -9677,7 +9747,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>433</v>
       </c>
@@ -9712,7 +9782,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
         <v>433</v>
       </c>
@@ -9747,7 +9817,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>433</v>
       </c>
@@ -9782,7 +9852,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>433</v>
       </c>
@@ -9817,7 +9887,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>433</v>
       </c>
@@ -9852,7 +9922,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>433</v>
       </c>
@@ -9887,7 +9957,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>433</v>
       </c>
@@ -9922,7 +9992,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>433</v>
       </c>
@@ -9957,7 +10027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>433</v>
       </c>
@@ -9992,7 +10062,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>433</v>
       </c>
@@ -10027,7 +10097,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>433</v>
       </c>
@@ -10062,7 +10132,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>433</v>
       </c>
@@ -10087,7 +10157,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>433</v>
       </c>
@@ -10112,7 +10182,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>433</v>
       </c>
@@ -10135,7 +10205,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>433</v>
       </c>
@@ -10160,7 +10230,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>932</v>
       </c>
@@ -10201,7 +10271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>932</v>
       </c>
@@ -10242,7 +10312,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>932</v>
       </c>
@@ -10283,7 +10353,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>932</v>
       </c>
@@ -10324,7 +10394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>932</v>
       </c>
@@ -10365,7 +10435,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>932</v>
       </c>
@@ -10406,7 +10476,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>932</v>
       </c>
@@ -10447,7 +10517,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>932</v>
       </c>
@@ -10488,7 +10558,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>932</v>
       </c>
@@ -10529,7 +10599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
         <v>932</v>
       </c>
@@ -10570,7 +10640,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
         <v>932</v>
       </c>
@@ -10611,7 +10681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>932</v>
       </c>
@@ -10652,7 +10722,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>932</v>
       </c>
@@ -10693,7 +10763,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>932</v>
       </c>
@@ -10734,7 +10804,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>932</v>
       </c>
@@ -10775,7 +10845,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
         <v>932</v>
       </c>
@@ -10816,7 +10886,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>932</v>
       </c>
@@ -10857,7 +10927,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>932</v>
       </c>
@@ -10898,7 +10968,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>932</v>
       </c>
@@ -10939,7 +11009,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>932</v>
       </c>
@@ -10980,7 +11050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>932</v>
       </c>
@@ -11021,7 +11091,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>932</v>
       </c>
@@ -11062,7 +11132,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>932</v>
       </c>
@@ -11103,7 +11173,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>932</v>
       </c>
@@ -11144,7 +11214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>932</v>
       </c>
@@ -11185,7 +11255,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
         <v>932</v>
       </c>
@@ -11226,7 +11296,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>932</v>
       </c>
@@ -11267,7 +11337,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>932</v>
       </c>
@@ -11308,7 +11378,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>932</v>
       </c>
@@ -11349,7 +11419,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>932</v>
       </c>
@@ -11390,7 +11460,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>932</v>
       </c>
@@ -11431,7 +11501,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>932</v>
       </c>
@@ -11472,7 +11542,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>932</v>
       </c>
@@ -11513,7 +11583,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>932</v>
       </c>
@@ -11554,7 +11624,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>932</v>
       </c>
@@ -11595,7 +11665,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>932</v>
       </c>
@@ -11636,7 +11706,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>932</v>
       </c>
@@ -11677,7 +11747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>932</v>
       </c>
@@ -11718,7 +11788,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>932</v>
       </c>
@@ -11759,7 +11829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>932</v>
       </c>
@@ -11800,7 +11870,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>932</v>
       </c>
@@ -11841,7 +11911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>932</v>
       </c>
@@ -11882,7 +11952,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>932</v>
       </c>
@@ -11923,7 +11993,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
         <v>932</v>
       </c>
@@ -11964,7 +12034,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>932</v>
       </c>
@@ -12005,7 +12075,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>932</v>
       </c>
@@ -12046,7 +12116,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>932</v>
       </c>
@@ -12087,7 +12157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>932</v>
       </c>
@@ -12128,7 +12198,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>932</v>
       </c>
@@ -12169,7 +12239,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>932</v>
       </c>
@@ -12210,7 +12280,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>932</v>
       </c>
@@ -12251,7 +12321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>932</v>
       </c>
@@ -12292,7 +12362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
         <v>932</v>
       </c>
@@ -12333,7 +12403,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>932</v>
       </c>
@@ -12374,7 +12444,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>931</v>
       </c>
@@ -12415,7 +12485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
         <v>931</v>
       </c>
@@ -12456,7 +12526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>931</v>
       </c>
@@ -12497,7 +12567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
         <v>931</v>
       </c>
@@ -12538,7 +12608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>931</v>
       </c>
@@ -12579,7 +12649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
         <v>931</v>
       </c>
@@ -12620,7 +12690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
         <v>931</v>
       </c>
@@ -12661,7 +12731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
         <v>931</v>
       </c>
@@ -12702,7 +12772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
         <v>931</v>
       </c>
@@ -12743,7 +12813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>931</v>
       </c>
@@ -12784,7 +12854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>931</v>
       </c>
@@ -12825,7 +12895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
         <v>931</v>
       </c>
@@ -12866,7 +12936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>931</v>
       </c>
@@ -12907,7 +12977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
         <v>931</v>
       </c>
@@ -12948,7 +13018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>931</v>
       </c>
@@ -12989,7 +13059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:13" hidden="1">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>931</v>
       </c>
@@ -13030,7 +13100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>931</v>
       </c>
@@ -13071,7 +13141,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>931</v>
       </c>
@@ -13112,7 +13182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>931</v>
       </c>
@@ -13153,7 +13223,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="214" spans="1:13" hidden="1">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
         <v>931</v>
       </c>
@@ -13194,7 +13264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
         <v>931</v>
       </c>
@@ -13235,7 +13305,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>931</v>
       </c>
@@ -13276,7 +13346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>931</v>
       </c>
@@ -13317,7 +13387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:13" hidden="1">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
         <v>931</v>
       </c>
@@ -13358,7 +13428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>931</v>
       </c>
@@ -13399,7 +13469,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="220" spans="1:13" hidden="1">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>931</v>
       </c>
@@ -13440,7 +13510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
         <v>931</v>
       </c>
@@ -13481,7 +13551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
         <v>931</v>
       </c>
@@ -13522,7 +13592,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:13" hidden="1">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
         <v>931</v>
       </c>
@@ -13572,14 +13642,11 @@
         <filter val="重型坦克"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="6">
       <filters>
-        <filter val="中型坦克"/>
+        <filter val="美国"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:M223">
-      <sortCondition ref="A1:A110"/>
-    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13590,4 +13657,2229 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:M59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1943</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1934</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1934</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1936</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1936</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1904</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1970</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1936</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2015</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1918</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1945</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1938</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1940</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1935</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1992</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1937</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1940</v>
+      </c>
+      <c r="J39" s="3">
+        <v>60</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1939</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1940</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1943</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1943</v>
+      </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J55" s="3">
+        <v>250</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1942</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1945</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>